--- a/SummerFlounder/Fluke2024WorkingGroup.xlsx
+++ b/SummerFlounder/Fluke2024WorkingGroup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umassd-my.sharepoint.com/personal/swulfing_umassd_edu/Documents/Documents/GitHub/UMassD/SummerFlounder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{BCE68A34-54E6-48F9-917A-C64FBEAA9620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1B224C1-9904-4C6C-A76F-30C08BC2CB28}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{BCE68A34-54E6-48F9-917A-C64FBEAA9620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC695716-8539-4018-9FC2-2A6B993D6859}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{84BFAAFF-09EA-4820-A42B-C6E9BC5BE4E6}"/>
+    <workbookView xWindow="-28920" yWindow="-9405" windowWidth="29040" windowHeight="15720" xr2:uid="{84BFAAFF-09EA-4820-A42B-C6E9BC5BE4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>State</t>
   </si>
@@ -63,9 +63,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>CouncilReps</t>
-  </si>
-  <si>
     <t>PercentQuota</t>
   </si>
   <si>
@@ -94,6 +91,12 @@
   </si>
   <si>
     <t>LandingsperVesselMajorCities</t>
+  </si>
+  <si>
+    <t>RDM_harvest</t>
+  </si>
+  <si>
+    <t>WG_Reps</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3AC23-4824-41BD-87B3-718AD58CB4D7}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,30 +481,33 @@
     <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -524,8 +530,11 @@
         <f>E2/F2</f>
         <v>23217.666666666668</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>33391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -550,8 +559,11 @@
         <f t="shared" ref="G3:G12" si="0">E3/F3</f>
         <v>12015.163636363637</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>563376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -575,8 +587,11 @@
         <f t="shared" si="0"/>
         <v>33949.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>150361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -601,8 +616,11 @@
         <f t="shared" si="0"/>
         <v>27710.383561643837</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1075530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -625,8 +643,11 @@
         <f t="shared" si="0"/>
         <v>31240.615384615383</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>77650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -651,8 +672,11 @@
         <f t="shared" si="0"/>
         <v>9475.5375000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>54896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -663,21 +687,24 @@
         <v>1.779E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>89045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -689,18 +716,21 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -712,18 +742,21 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -744,10 +777,13 @@
         <f t="shared" si="0"/>
         <v>18356.345132743361</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>220799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -769,6 +805,9 @@
       <c r="G12">
         <f t="shared" si="0"/>
         <v>37815.25</v>
+      </c>
+      <c r="H12">
+        <v>92581</v>
       </c>
     </row>
   </sheetData>
